--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AREPD_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AREPD_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.4919330941180051</v>
+        <v>0.46659951392083</v>
       </c>
       <c r="D2">
-        <v>0.6228309504617755</v>
+        <v>0.6453739777789236</v>
       </c>
       <c r="E2">
         <v>0.6966263872067413</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.05017649704888</v>
+        <v>0.9965854368087912</v>
       </c>
       <c r="D3">
-        <v>0.293788103777374</v>
+        <v>0.3298016152798811</v>
       </c>
       <c r="E3">
         <v>0.6966263872067413</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.1685726236220784</v>
+        <v>-0.1441525967470161</v>
       </c>
       <c r="D4">
-        <v>0.8661531195551879</v>
+        <v>0.8866923300557712</v>
       </c>
       <c r="E4">
         <v>0.6966263872067413</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.2912464786806962</v>
+        <v>0.2452526349988132</v>
       </c>
       <c r="D5">
-        <v>0.7708987922355</v>
+        <v>0.8085341228352818</v>
       </c>
       <c r="E5">
         <v>0.6966263872067413</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.3723144530020529</v>
+        <v>0.3462654408956523</v>
       </c>
       <c r="D6">
-        <v>0.7097057262715465</v>
+        <v>0.7324329763674762</v>
       </c>
       <c r="E6">
         <v>0.6797578085727821</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.7684362191745348</v>
+        <v>-0.8770656631997783</v>
       </c>
       <c r="D7">
-        <v>0.4423361362174141</v>
+        <v>0.3899282544463496</v>
       </c>
       <c r="E7">
         <v>0.6797578085727821</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.2930063688908789</v>
+        <v>-0.2870552726176914</v>
       </c>
       <c r="D8">
-        <v>0.7695534912008579</v>
+        <v>0.7767562845370648</v>
       </c>
       <c r="E8">
         <v>0.6797578085727821</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.322745360198864</v>
+        <v>-1.152750111812624</v>
       </c>
       <c r="D9">
-        <v>0.1861002024835143</v>
+        <v>0.2613849018011334</v>
       </c>
       <c r="E9">
         <v>0.6666371841897598</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.6679976966983321</v>
+        <v>-0.5564949194574234</v>
       </c>
       <c r="D10">
-        <v>0.5042268740107367</v>
+        <v>0.5834894822473535</v>
       </c>
       <c r="E10">
         <v>0.6666371841897598</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.4704952214074537</v>
+        <v>0.4173619053608623</v>
       </c>
       <c r="D11">
-        <v>0.6380623589138543</v>
+        <v>0.6804585857483167</v>
       </c>
       <c r="E11">
         <v>0.7011526106497225</v>
